--- a/debug/BoM/cs_debug_v1.0_BOM_processed.xlsx
+++ b/debug/BoM/cs_debug_v1.0_BOM_processed.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/work-reese/hardware/commonsense/cs-hardware/debug/BoM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A4925A4-F400-3042-814A-E7208C56FF00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7B1C2D-3727-FB4A-A18E-4EC5C51EBD31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{5840DACC-30B6-6246-9F4C-B8ED9E20C46B}"/>
+    <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{55169A11-7F54-2F40-9DEC-4530FD6BBABF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="cs_debug_v1.0_BOM_raw" localSheetId="0">Sheet1!$A$1:$N$67</definedName>
+    <definedName name="cs_debug_v1" localSheetId="0">Sheet1!$A$1:$K$67</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,9 +37,10 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{D8BFB9D9-8674-E548-8833-052848DA1EE1}" name="cs_debug_v1.0_BOM_raw" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/work-reese/hardware/commonsense/cs-hardware/debug/BoM/cs_debug_v1.0_BOM_raw.csv" tab="0" semicolon="1">
-      <textFields count="92">
+  <connection id="1" xr16:uid="{DCEE60EA-9757-6A4C-85EF-75908F15B417}" name="cs_debug_v1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/work-reese/hardware/commonsense/cs-hardware/debug/CAM/cs_debug_v1.0_6-19-20_14-16/CAMOutputs/Assembly/cs_debug_v1.csv" tab="0" semicolon="1">
+      <textFields count="93">
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -139,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="232">
   <si>
     <t>Qty</t>
   </si>
@@ -150,15 +151,12 @@
     <t>Device</t>
   </si>
   <si>
+    <t>Package</t>
+  </si>
+  <si>
     <t>Parts</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>MANUFACTURER</t>
-  </si>
-  <si>
     <t>MPN</t>
   </si>
   <si>
@@ -171,37 +169,31 @@
     <t>TOL</t>
   </si>
   <si>
-    <t>TP_SIGNAL_NAME</t>
-  </si>
-  <si>
-    <t>VALUE</t>
-  </si>
-  <si>
     <t>VOLTAGE</t>
   </si>
   <si>
     <t>SLIDESWITCH-SPDT-SMD-RIGHT-ANGLE</t>
   </si>
   <si>
+    <t>SWITCH_SPST_SMD_A</t>
+  </si>
+  <si>
     <t>S201</t>
   </si>
   <si>
-    <t>Single Pole, Double Throw (SPDT) Switch</t>
-  </si>
-  <si>
-    <t>Nidec Copal Electronics</t>
-  </si>
-  <si>
     <t>CUS-12TB</t>
   </si>
   <si>
     <t>R-2010</t>
   </si>
   <si>
+    <t>R2010</t>
+  </si>
+  <si>
     <t>R1</t>
   </si>
   <si>
-    <t>Resistor, Surface Mount</t>
+    <t>ERJ-S1D0R00U</t>
   </si>
   <si>
     <t>0.1u</t>
@@ -210,13 +202,10 @@
     <t>C-0402</t>
   </si>
   <si>
-    <t>C8, C9, C11, C12, C14, C15, C21, C45</t>
-  </si>
-  <si>
-    <t>Capacitor, Surface Mount</t>
-  </si>
-  <si>
-    <t>Kemet</t>
+    <t>C0402</t>
+  </si>
+  <si>
+    <t>C3, C8, C9, C11, C12, C14, C15, C16, C21, C22, C29, C30, C31, C32, C33, C34, C35, C36, C37, C38, C39, C40, C41, C42, C43, C44, C45, C48, C49, C50, C51, C52, C53</t>
   </si>
   <si>
     <t>C0402C104K8RACTU</t>
@@ -228,21 +217,18 @@
     <t>10V</t>
   </si>
   <si>
-    <t>C3, C16, C22, C29, C30, C31, C32, C33, C34, C35, C36, C37, C38, C39, C40, C41, C42, C43, C44, C48, C49, C50, C51, C52, C53</t>
-  </si>
-  <si>
     <t>100k</t>
   </si>
   <si>
     <t>R-0402</t>
   </si>
   <si>
+    <t>R0402</t>
+  </si>
+  <si>
     <t>R2, R3, R6, R46, R47, R49, R50, R202, R204</t>
   </si>
   <si>
-    <t>Panasonic</t>
-  </si>
-  <si>
     <t>ERJ-2GEJ104X</t>
   </si>
   <si>
@@ -300,6 +286,9 @@
     <t>C-0603</t>
   </si>
   <si>
+    <t>C0603</t>
+  </si>
+  <si>
     <t>C108</t>
   </si>
   <si>
@@ -312,6 +301,9 @@
     <t>C-0805</t>
   </si>
   <si>
+    <t>C0805</t>
+  </si>
+  <si>
     <t>C1, C2</t>
   </si>
   <si>
@@ -333,15 +325,12 @@
     <t>0396_12MHZ-12PF-K7</t>
   </si>
   <si>
+    <t>CRYSTAL-3.2-2.5</t>
+  </si>
+  <si>
     <t>Y102</t>
   </si>
   <si>
-    <t>Crystal</t>
-  </si>
-  <si>
-    <t>Abracon</t>
-  </si>
-  <si>
     <t>ABM8G-12.000MHZ-4Y-T3</t>
   </si>
   <si>
@@ -429,12 +418,12 @@
     <t>2N7002P</t>
   </si>
   <si>
+    <t>SOT23-3_2N7002P</t>
+  </si>
+  <si>
     <t>Q4, Q6, Q8, Q10</t>
   </si>
   <si>
-    <t>Nexperia/NXP N-channel Trench MOSFET</t>
-  </si>
-  <si>
     <t>2k</t>
   </si>
   <si>
@@ -453,9 +442,6 @@
     <t>L1</t>
   </si>
   <si>
-    <t>Inductors</t>
-  </si>
-  <si>
     <t>MLZ2012A3R3WT000</t>
   </si>
   <si>
@@ -465,12 +451,12 @@
     <t>CRYSTAL3.2X1.5MM</t>
   </si>
   <si>
+    <t>CRYSTAL-SMD-3.2X1.5MM</t>
+  </si>
+  <si>
     <t>Y101</t>
   </si>
   <si>
-    <t>ECS Inc.</t>
-  </si>
-  <si>
     <t>ECS-.327-12.5-34B-TR</t>
   </si>
   <si>
@@ -507,6 +493,9 @@
     <t>R-0603</t>
   </si>
   <si>
+    <t>R0603</t>
+  </si>
+  <si>
     <t>R22, R23, R31, R32, R38, R39, R58, R59</t>
   </si>
   <si>
@@ -552,6 +541,9 @@
     <t>AP2120N</t>
   </si>
   <si>
+    <t>SOT23-3_AP2120N</t>
+  </si>
+  <si>
     <t>U1</t>
   </si>
   <si>
@@ -561,51 +553,48 @@
     <t>ATSAM3X8EAAU</t>
   </si>
   <si>
+    <t>LQFP144</t>
+  </si>
+  <si>
     <t>U_INSTR_PROC</t>
   </si>
   <si>
-    <t>ATSAM3X8EA ARM-based Flash MCU</t>
-  </si>
-  <si>
-    <t>Atmel</t>
-  </si>
-  <si>
     <t>BGX50A</t>
   </si>
   <si>
+    <t>SOT143_BGX50A</t>
+  </si>
+  <si>
     <t>D2</t>
   </si>
   <si>
-    <t>Bridge Rectifier from InfineonTechnologies</t>
-  </si>
-  <si>
-    <t>Infineon Technologies</t>
-  </si>
-  <si>
     <t>BGX50AE6327HTSA1</t>
   </si>
   <si>
     <t>DAC7574IDGS</t>
   </si>
   <si>
+    <t>DGS10</t>
+  </si>
+  <si>
     <t>U11</t>
   </si>
   <si>
-    <t>TI DAC7574, Quad, 12-bit digital-to-analog converter with I2C interface</t>
-  </si>
-  <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
     <t>DLP11SN900HL2L</t>
   </si>
   <si>
+    <t>IND_DLP11S_0504_MUR</t>
+  </si>
+  <si>
     <t>L2</t>
   </si>
   <si>
     <t>EPSON_TSX-3225_24.0000MF10Z-C3</t>
   </si>
   <si>
+    <t>XTAL_EPSON_TSX3225</t>
+  </si>
+  <si>
     <t>Y1</t>
   </si>
   <si>
@@ -615,135 +604,129 @@
     <t>FDN340P</t>
   </si>
   <si>
+    <t>SOT23-3_FDN340P</t>
+  </si>
+  <si>
     <t>Q3, Q5, Q7, Q9</t>
   </si>
   <si>
-    <t>SINGLE P-CHANNEL, LOGIC LEVEL, POWERTRENCH MOSFET</t>
-  </si>
-  <si>
     <t>HIROSE-DF40_30-PIN_CONNECTORS-HEADER</t>
   </si>
   <si>
+    <t>HRS_DF40C-30DP-0.4V(51)</t>
+  </si>
+  <si>
     <t>J_DBG_TO_MAIN_HDR</t>
   </si>
   <si>
-    <t>Hirose DF40 Series 30-pin connector. 0.4mm pitch mezzanine-type connector</t>
-  </si>
-  <si>
     <t>DF40C-30DP-0.4V(51)</t>
   </si>
   <si>
     <t>INA225AIDGK</t>
   </si>
   <si>
+    <t>DGK-MSOP8_INA225</t>
+  </si>
+  <si>
     <t>U5, U7, U9, U14</t>
   </si>
   <si>
-    <t>Texas Instruments INA335AIDGK Differential Amplifier with 4-option programmable gain</t>
-  </si>
-  <si>
     <t>INA225AIDGKT</t>
   </si>
   <si>
     <t>J-JTAG-CORTEX-NEEDLE6-LEGS</t>
   </si>
   <si>
+    <t>8.06.16_6-PIN_NEEDLE_ADAPTER_LEGS</t>
+  </si>
+  <si>
     <t>J3</t>
   </si>
   <si>
-    <t>Adaptor, j-Link To Pcb, 6 Pin Needle</t>
-  </si>
-  <si>
     <t>J-JTAG-CORTEX_SMD</t>
   </si>
   <si>
+    <t>SAMTECH_FTSH-105-01</t>
+  </si>
+  <si>
     <t>J1, J2</t>
   </si>
   <si>
-    <t>Cortex Debug Connector - 10 pin</t>
-  </si>
-  <si>
-    <t>Samtech Inc.</t>
-  </si>
-  <si>
     <t>FTSH-105-01-L-DV-K-TR</t>
   </si>
   <si>
     <t>J-SERIAL-PORT</t>
   </si>
   <si>
+    <t>HEADER-1X6</t>
+  </si>
+  <si>
     <t>J4</t>
   </si>
   <si>
-    <t>Arduino-style serial port connector</t>
-  </si>
-  <si>
-    <t>Adam Tech</t>
-  </si>
-  <si>
     <t>PH1-06-UA</t>
   </si>
   <si>
     <t>J-WURTH-USBC</t>
   </si>
   <si>
+    <t>632723X00011</t>
+  </si>
+  <si>
     <t>J5</t>
   </si>
   <si>
-    <t>USB 3.1 Type C Receptacle SMT</t>
-  </si>
-  <si>
     <t>JUMPER-SMT_2_NC_PASTE_NO-SILK</t>
   </si>
   <si>
+    <t>SMT-JUMPER_2_NC_PASTE_NO-SILK</t>
+  </si>
+  <si>
     <t>JP.CHRG.MAIN, JP.EN.VMEAS, JP.EN.VPROC, JP.EXT.PWR, JP.HUB.VDD, JP.IP.ANA, JP.IP.AREF, JP.IP.CORE, JP.IP.OUT, JP.IP.PLL, JP.IP.RST, JP.IP.UTMI, JP.IP.VDDIO, JP.P.DTR, JP.P.PROC, JP.P.STOR, JP.P.TEMP, JP.UART.RX, JP.UART.RX.IP, JP.UART.TX, JP.UART.TX.IP, JP.UART.VCC, JP.USB.USART, JP.USBC.VBUS, JP.VDD.MAIN</t>
   </si>
   <si>
-    <t>Normally closed solder jumper</t>
-  </si>
-  <si>
     <t>JUMPER-SMT_2_NO_PASTEFREE</t>
   </si>
   <si>
-    <t>JP.USBM.DBG, JP.USBM.MAIN</t>
-  </si>
-  <si>
-    <t>Normally open solder jumper</t>
+    <t>SMT-JUMPER_2_NO_PASTEFREE_NO-SILK</t>
+  </si>
+  <si>
+    <t>JP.USB.DBG, JP.USBC</t>
   </si>
   <si>
     <t>JUMPER-SMT_3_1-NC_PASTE_NO-SILK</t>
   </si>
   <si>
+    <t>SMT-JUMPER_3_1-NC_PASTE_NO-SILK</t>
+  </si>
+  <si>
     <t>JP.USB.DDN, JP.USB.DDP, JP.USB.MDN, JP.USB.MDP, JP.USB.VBUSP, JP.VREG.SEL</t>
   </si>
   <si>
-    <t>Normally closed solder jumper (1 of 2 connections)</t>
-  </si>
-  <si>
     <t>MBR120VLSFT3GOSCT-ND</t>
   </si>
   <si>
     <t>DIODESOD-123</t>
   </si>
   <si>
+    <t>SOD-123</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
-    <t>Diode</t>
-  </si>
-  <si>
     <t>MBR120VLSFT3G</t>
   </si>
   <si>
     <t>MCP73871T-2CCI/ML</t>
   </si>
   <si>
+    <t>QFN50P400X400X100-21N</t>
+  </si>
+  <si>
     <t>U12</t>
   </si>
   <si>
-    <t>IC USB/AC BATT CHRGR W/PPM 20QFN</t>
-  </si>
-  <si>
     <t>MF-MSMF050-2</t>
   </si>
   <si>
@@ -753,21 +736,15 @@
     <t>F2</t>
   </si>
   <si>
-    <t>PTC fuses, resettable thermistors</t>
-  </si>
-  <si>
     <t>MH2029-300Y</t>
   </si>
   <si>
+    <t>L0805</t>
+  </si>
+  <si>
     <t>L101, L102</t>
   </si>
   <si>
-    <t>Ferrite Bead</t>
-  </si>
-  <si>
-    <t>Bourns</t>
-  </si>
-  <si>
     <t>L103, L104</t>
   </si>
   <si>
@@ -777,12 +754,12 @@
     <t>SW_EVQ-P7L01P_SPST_RA</t>
   </si>
   <si>
+    <t>SW_EVQ-P7L01P</t>
+  </si>
+  <si>
     <t>S.ERASE, S.NRST</t>
   </si>
   <si>
-    <t>Switch Tactile N.O. SPST Rectangular Button Gull Wing 0.05A 12VDC 100000Cycle 1.6N SMD Embossed T/R</t>
-  </si>
-  <si>
     <t>EVQP7L01P</t>
   </si>
   <si>
@@ -792,55 +769,61 @@
     <t>U6, U8, U10, U15</t>
   </si>
   <si>
-    <t>TI-OPA357AIDBVTG4 Operational Amplifier</t>
-  </si>
-  <si>
     <t>Solar</t>
   </si>
   <si>
     <t>J-JST2-SMT-RA</t>
   </si>
   <si>
+    <t>JST-PH-2-SMT-RA</t>
+  </si>
+  <si>
     <t>J19</t>
   </si>
   <si>
-    <t>JST 2-Pin Connector</t>
-  </si>
-  <si>
-    <t>JST Sales America Inc.</t>
-  </si>
-  <si>
     <t>S2B-PH-SM4-TB(LF)(SN)</t>
   </si>
   <si>
     <t>TLV1117LV33DCYR</t>
   </si>
   <si>
+    <t>DCY4</t>
+  </si>
+  <si>
     <t>U2</t>
   </si>
   <si>
-    <t>TI TLV1117LV33DCYR 3.3V LDO Regulator</t>
-  </si>
-  <si>
     <t>TPTP10SQ</t>
   </si>
   <si>
+    <t>TP10SQ</t>
+  </si>
+  <si>
     <t>3V3.IPROC, 3V3.MEAS, M.D.DA.VO, M.D.OA.EN, M.D.OA.N, M.D.OA.P, M.D.OA.VO, M.D.SDN, M.D.VN, M.D.VOI, M.P.DA.VO, M.P.OA.EN, M.P.OA.N, M.P.OA.P, M.P.OA.VO, M.P.SDN, M.P.VN, M.P.VOI, M.S.DA.VO, M.S.OA.EN, M.S.OA.N, M.S.OA.P, M.S.OA.VO, M.S.SDN, M.S.VN, M.S.VOI, M.T.DA.VO, M.T.OA.EN, M.T.OA.N, M.T.OA.P, M.T.OA.VO, M.T.SDN, M.T.VN, M.T.VOI, SCL, SDA</t>
   </si>
   <si>
-    <t>Test pad</t>
-  </si>
-  <si>
     <t>USB2412-DZK</t>
   </si>
   <si>
+    <t>QFN28_5X5MC_MCH</t>
+  </si>
+  <si>
     <t>U13</t>
   </si>
   <si>
     <t>USBABSMTDIP</t>
   </si>
   <si>
-    <t>J_USB_DBG, J_USB_MAIN</t>
+    <t>ZX62D-AB-5P8</t>
+  </si>
+  <si>
+    <t>J.USB.MN</t>
+  </si>
+  <si>
+    <t>ZX62D-AB-5P8(30)</t>
+  </si>
+  <si>
+    <t>J.USB.DBG</t>
   </si>
   <si>
     <t>VARISTOR</t>
@@ -849,10 +832,10 @@
     <t>VR1, VR2, VR3, VR4, VR5, VR6, VR7, VR8</t>
   </si>
   <si>
-    <t>Varistor</t>
-  </si>
-  <si>
     <t>CG0603MLC-05E</t>
+  </si>
+  <si>
+    <t>"632723100011"</t>
   </si>
 </sst>
 </file>
@@ -888,10 +871,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -910,7 +894,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cs_debug_v1.0_BOM_raw" connectionId="1" xr16:uid="{E169C23B-DE3C-774B-B991-9687573386E0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cs_debug_v1" connectionId="1" xr16:uid="{73B84853-299D-DB4A-8F7B-BA8BE67A31BB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1209,28 +1193,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FBEF23-0089-8B4A-99BA-E326D261B4BA}">
-  <dimension ref="A1:M67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEACFF1-1391-9E47-BF45-66732AA26617}">
+  <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="34.5" customWidth="1"/>
+    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1261,40 +1245,28 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1302,323 +1274,302 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="I4" t="s">
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E7" t="s">
         <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
       </c>
       <c r="F7" t="s">
         <v>33</v>
       </c>
       <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
         <v>36</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G8" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I8" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
         <v>40</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E12" t="s">
         <v>43</v>
       </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F12" t="s">
         <v>44</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G12" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" t="s">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="1">
+        <v>23</v>
+      </c>
+      <c r="I13" s="1">
         <v>0.1</v>
       </c>
-      <c r="M13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
@@ -1630,63 +1581,51 @@
         <v>53</v>
       </c>
       <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J14" t="s">
         <v>24</v>
       </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" t="s">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="M14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>57</v>
       </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
         <v>58</v>
       </c>
-      <c r="H15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="M15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I15" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1694,39 +1633,33 @@
         <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
         <v>65</v>
@@ -1735,359 +1668,323 @@
         <v>66</v>
       </c>
       <c r="G17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
         <v>67</v>
       </c>
-      <c r="H17" t="s">
-        <v>67</v>
-      </c>
-      <c r="L17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
         <v>68</v>
       </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>69</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J20" t="s">
         <v>24</v>
       </c>
-      <c r="F18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="1">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="1">
         <v>0.1</v>
       </c>
-      <c r="M18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="M19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" t="s">
-        <v>76</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
         <v>79</v>
-      </c>
-      <c r="H21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="M21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>80</v>
       </c>
       <c r="C22" t="s">
         <v>52</v>
       </c>
       <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" t="s">
         <v>81</v>
       </c>
-      <c r="E22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" t="s">
-        <v>25</v>
-      </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
-      <c r="I22" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="I22" s="1">
         <v>0.1</v>
       </c>
-      <c r="M22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
         <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
         <v>84</v>
       </c>
-      <c r="E23" t="s">
-        <v>24</v>
-      </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s">
         <v>85</v>
       </c>
-      <c r="H23" t="s">
-        <v>85</v>
-      </c>
       <c r="I23" t="s">
         <v>86</v>
       </c>
-      <c r="J23" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="M23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4</v>
       </c>
       <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
         <v>87</v>
       </c>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
         <v>88</v>
       </c>
-      <c r="E24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
         <v>89</v>
       </c>
-      <c r="H24" t="s">
-        <v>89</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="F25" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="G25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>4</v>
       </c>
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B26" t="s">
         <v>91</v>
       </c>
-      <c r="E25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" t="s">
-        <v>89</v>
-      </c>
-      <c r="J25" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
         <v>92</v>
       </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>93</v>
       </c>
-      <c r="E26" t="s">
-        <v>20</v>
-      </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
         <v>94</v>
       </c>
-      <c r="H26" t="s">
-        <v>94</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="1">
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
         <v>97</v>
       </c>
-      <c r="G27" t="s">
-        <v>95</v>
-      </c>
-      <c r="H27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>98</v>
       </c>
-      <c r="C28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="D28">
+        <v>805</v>
+      </c>
+      <c r="E28" t="s">
         <v>99</v>
       </c>
-      <c r="E28" t="s">
-        <v>20</v>
-      </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="G28" t="s">
         <v>100</v>
       </c>
-      <c r="H28" t="s">
-        <v>100</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2103,43 +2000,40 @@
       <c r="E29" t="s">
         <v>104</v>
       </c>
+      <c r="F29" t="s">
+        <v>105</v>
+      </c>
       <c r="G29" t="s">
         <v>105</v>
       </c>
-      <c r="H29" t="s">
-        <v>105</v>
-      </c>
-      <c r="L29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
         <v>106</v>
       </c>
-      <c r="C30" t="s">
+      <c r="F30" t="s">
         <v>107</v>
       </c>
-      <c r="D30" t="s">
+      <c r="G30" t="s">
         <v>108</v>
       </c>
-      <c r="E30" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" t="s">
-        <v>110</v>
-      </c>
-      <c r="H30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I30" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2147,243 +2041,216 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" t="s">
+        <v>107</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
         <v>111</v>
       </c>
-      <c r="E31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="F32" t="s">
         <v>112</v>
-      </c>
-      <c r="H31" t="s">
-        <v>113</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32">
-        <v>39</v>
-      </c>
-      <c r="C32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" t="s">
-        <v>33</v>
       </c>
       <c r="G32" t="s">
         <v>112</v>
       </c>
-      <c r="H32" t="s">
-        <v>112</v>
-      </c>
-      <c r="J32" s="1">
+      <c r="I32" s="1">
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" t="s">
+        <v>119</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>2</v>
       </c>
-      <c r="B33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="B35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" t="s">
         <v>116</v>
       </c>
-      <c r="E33" t="s">
+      <c r="D35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" t="s">
+        <v>122</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" t="s">
+        <v>125</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
         <v>20</v>
       </c>
-      <c r="F33" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" t="s">
-        <v>117</v>
-      </c>
-      <c r="H33" t="s">
-        <v>117</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>3</v>
-      </c>
-      <c r="B34" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" t="s">
-        <v>119</v>
-      </c>
-      <c r="E34" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" t="s">
-        <v>120</v>
-      </c>
-      <c r="H34" t="s">
-        <v>120</v>
-      </c>
-      <c r="I34" t="s">
-        <v>86</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="M34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C35" t="s">
-        <v>121</v>
-      </c>
-      <c r="D35" t="s">
-        <v>122</v>
-      </c>
-      <c r="E35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" t="s">
-        <v>123</v>
-      </c>
-      <c r="H35" t="s">
-        <v>123</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>2</v>
-      </c>
-      <c r="B36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" t="s">
-        <v>125</v>
-      </c>
-      <c r="E36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" t="s">
-        <v>126</v>
-      </c>
-      <c r="H36" t="s">
-        <v>126</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="E37" t="s">
         <v>127</v>
       </c>
-      <c r="C37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>128</v>
       </c>
-      <c r="E37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" t="s">
-        <v>33</v>
-      </c>
       <c r="G37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H37" t="s">
         <v>129</v>
       </c>
-      <c r="J37" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>130</v>
+      </c>
+      <c r="J37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" t="s">
         <v>131</v>
       </c>
-      <c r="E38" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" t="s">
-        <v>25</v>
-      </c>
       <c r="G38" t="s">
-        <v>132</v>
-      </c>
-      <c r="H38" t="s">
-        <v>132</v>
-      </c>
-      <c r="I38" t="s">
-        <v>133</v>
-      </c>
-      <c r="J38" t="s">
-        <v>134</v>
-      </c>
-      <c r="M38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2396,19 +2263,22 @@
       <c r="D39" t="s">
         <v>137</v>
       </c>
+      <c r="E39" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" t="s">
+        <v>136</v>
+      </c>
       <c r="G39" t="s">
-        <v>135</v>
-      </c>
-      <c r="H39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
         <v>139</v>
@@ -2423,10 +2293,10 @@
         <v>142</v>
       </c>
       <c r="G40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2443,107 +2313,107 @@
         <v>145</v>
       </c>
       <c r="F41" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
         <v>146</v>
       </c>
-      <c r="G41" t="s">
+      <c r="C42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" t="s">
         <v>147</v>
       </c>
-      <c r="H41" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="E42" t="s">
         <v>148</v>
       </c>
-      <c r="C42" t="s">
-        <v>148</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
+        <v>146</v>
+      </c>
+      <c r="G42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
         <v>149</v>
       </c>
-      <c r="E42" t="s">
+      <c r="C43" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" t="s">
         <v>150</v>
       </c>
-      <c r="F42" t="s">
+      <c r="E43" t="s">
         <v>151</v>
       </c>
-      <c r="G42" t="s">
-        <v>148</v>
-      </c>
-      <c r="H42" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="F43" t="s">
         <v>152</v>
-      </c>
-      <c r="C43" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" t="s">
-        <v>153</v>
       </c>
       <c r="G43" t="s">
         <v>152</v>
       </c>
-      <c r="H43" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" t="s">
         <v>154</v>
       </c>
-      <c r="C44" t="s">
-        <v>154</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>155</v>
       </c>
+      <c r="F44" t="s">
+        <v>153</v>
+      </c>
       <c r="G44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
         <v>156</v>
       </c>
-      <c r="H44" t="s">
+      <c r="C45" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="D45" t="s">
+        <v>157</v>
+      </c>
+      <c r="E45" t="s">
+        <v>158</v>
+      </c>
+      <c r="F45" t="s">
+        <v>159</v>
+      </c>
+      <c r="G45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>4</v>
-      </c>
-      <c r="B45" t="s">
-        <v>157</v>
-      </c>
-      <c r="C45" t="s">
-        <v>157</v>
-      </c>
-      <c r="D45" t="s">
-        <v>158</v>
-      </c>
-      <c r="E45" t="s">
-        <v>159</v>
-      </c>
-      <c r="G45" t="s">
-        <v>157</v>
-      </c>
-      <c r="H45" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>1</v>
       </c>
       <c r="B46" t="s">
         <v>160</v>
@@ -2557,16 +2427,16 @@
       <c r="E46" t="s">
         <v>162</v>
       </c>
+      <c r="F46" t="s">
+        <v>163</v>
+      </c>
       <c r="G46" t="s">
         <v>163</v>
       </c>
-      <c r="H46" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B47" t="s">
         <v>164</v>
@@ -2580,33 +2450,33 @@
       <c r="E47" t="s">
         <v>166</v>
       </c>
-      <c r="G47" t="s">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
         <v>167</v>
       </c>
-      <c r="H47" t="s">
+      <c r="C48" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
         <v>168</v>
       </c>
-      <c r="C48" t="s">
-        <v>168</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>169</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49" t="s">
         <v>171</v>
@@ -2624,394 +2494,394 @@
         <v>174</v>
       </c>
       <c r="G49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" t="s">
         <v>176</v>
       </c>
-      <c r="C50" t="s">
-        <v>176</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>177</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G50" s="3">
+        <v>632723100011</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>25</v>
+      </c>
+      <c r="B51" t="s">
         <v>178</v>
       </c>
-      <c r="F50" t="s">
+      <c r="C51" t="s">
+        <v>178</v>
+      </c>
+      <c r="D51" t="s">
         <v>179</v>
       </c>
-      <c r="G50" t="s">
+      <c r="E51" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
         <v>181</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>181</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>182</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>25</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
         <v>184</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>184</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>185</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E53" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" t="s">
+        <v>188</v>
+      </c>
+      <c r="D54" t="s">
+        <v>189</v>
+      </c>
+      <c r="E54" t="s">
+        <v>190</v>
+      </c>
+      <c r="F54" t="s">
+        <v>191</v>
+      </c>
+      <c r="G54" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55" t="s">
+        <v>192</v>
+      </c>
+      <c r="D55" t="s">
+        <v>193</v>
+      </c>
+      <c r="E55" t="s">
+        <v>194</v>
+      </c>
+      <c r="F55" t="s">
+        <v>192</v>
+      </c>
+      <c r="G55" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>195</v>
+      </c>
+      <c r="C56" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56">
+        <v>1812</v>
+      </c>
+      <c r="E56" t="s">
+        <v>197</v>
+      </c>
+      <c r="F56" t="s">
+        <v>195</v>
+      </c>
+      <c r="G56" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>2</v>
       </c>
-      <c r="B53" t="s">
-        <v>187</v>
-      </c>
-      <c r="C53" t="s">
-        <v>187</v>
-      </c>
-      <c r="D53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E53" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>6</v>
-      </c>
-      <c r="B54" t="s">
-        <v>190</v>
-      </c>
-      <c r="C54" t="s">
-        <v>190</v>
-      </c>
-      <c r="D54" t="s">
-        <v>191</v>
-      </c>
-      <c r="E54" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="B55" t="s">
-        <v>193</v>
-      </c>
-      <c r="C55" t="s">
-        <v>194</v>
-      </c>
-      <c r="D55" t="s">
-        <v>195</v>
-      </c>
-      <c r="E55" t="s">
-        <v>196</v>
-      </c>
-      <c r="G55" t="s">
-        <v>197</v>
-      </c>
-      <c r="H55" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>198</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>198</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>199</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>200</v>
       </c>
-      <c r="G56" t="s">
+      <c r="F57" t="s">
         <v>198</v>
       </c>
-      <c r="H56" t="s">
+      <c r="G57" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="B57" t="s">
-        <v>201</v>
-      </c>
-      <c r="C57" t="s">
-        <v>202</v>
-      </c>
-      <c r="D57" t="s">
-        <v>203</v>
-      </c>
-      <c r="E57" t="s">
-        <v>204</v>
-      </c>
-      <c r="G57" t="s">
-        <v>201</v>
-      </c>
-      <c r="H57" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C58" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D58" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E58" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F58" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G58" t="s">
-        <v>205</v>
-      </c>
-      <c r="H58" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2</v>
       </c>
       <c r="B59" t="s">
+        <v>202</v>
+      </c>
+      <c r="C59" t="s">
+        <v>203</v>
+      </c>
+      <c r="D59" t="s">
+        <v>204</v>
+      </c>
+      <c r="E59" t="s">
         <v>205</v>
       </c>
-      <c r="C59" t="s">
-        <v>205</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
+        <v>206</v>
+      </c>
+      <c r="G59" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>207</v>
+      </c>
+      <c r="C60" t="s">
+        <v>207</v>
+      </c>
+      <c r="D60" t="s">
+        <v>207</v>
+      </c>
+      <c r="E60" t="s">
+        <v>208</v>
+      </c>
+      <c r="F60" t="s">
+        <v>207</v>
+      </c>
+      <c r="G60" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
         <v>209</v>
       </c>
-      <c r="E59" t="s">
-        <v>207</v>
-      </c>
-      <c r="F59" t="s">
-        <v>208</v>
-      </c>
-      <c r="G59" t="s">
-        <v>205</v>
-      </c>
-      <c r="H59" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>2</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="C61" t="s">
         <v>210</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D61" t="s">
         <v>211</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E61" t="s">
         <v>212</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F61" t="s">
         <v>213</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G61" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
         <v>214</v>
       </c>
-      <c r="H60" t="s">
+      <c r="C62" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>4</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="D62" t="s">
         <v>215</v>
       </c>
-      <c r="C61" t="s">
-        <v>215</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="E62" t="s">
         <v>216</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F62" t="s">
+        <v>214</v>
+      </c>
+      <c r="G62" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>36</v>
+      </c>
+      <c r="B63" t="s">
         <v>217</v>
       </c>
-      <c r="G61" t="s">
-        <v>215</v>
-      </c>
-      <c r="H61" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="C63" t="s">
+        <v>217</v>
+      </c>
+      <c r="D63" t="s">
         <v>218</v>
       </c>
-      <c r="C62" t="s">
+      <c r="E63" t="s">
         <v>219</v>
       </c>
-      <c r="D62" t="s">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
         <v>220</v>
       </c>
-      <c r="E62" t="s">
+      <c r="C64" t="s">
+        <v>220</v>
+      </c>
+      <c r="D64" t="s">
         <v>221</v>
       </c>
-      <c r="F62" t="s">
+      <c r="E64" t="s">
         <v>222</v>
       </c>
-      <c r="G62" t="s">
+      <c r="F64" t="s">
+        <v>220</v>
+      </c>
+      <c r="G64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
         <v>223</v>
       </c>
-      <c r="H62" t="s">
+      <c r="C65" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="D65" t="s">
         <v>224</v>
       </c>
-      <c r="C63" t="s">
+      <c r="E65" t="s">
+        <v>225</v>
+      </c>
+      <c r="F65" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>223</v>
+      </c>
+      <c r="C66" t="s">
+        <v>223</v>
+      </c>
+      <c r="D66" t="s">
         <v>224</v>
       </c>
-      <c r="D63" t="s">
-        <v>225</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="E66" t="s">
+        <v>227</v>
+      </c>
+      <c r="F66" t="s">
         <v>226</v>
       </c>
-      <c r="F63" t="s">
-        <v>151</v>
-      </c>
-      <c r="G63" t="s">
-        <v>224</v>
-      </c>
-      <c r="H63" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>36</v>
-      </c>
-      <c r="B64" t="s">
-        <v>227</v>
-      </c>
-      <c r="C64" t="s">
-        <v>227</v>
-      </c>
-      <c r="D64" t="s">
-        <v>228</v>
-      </c>
-      <c r="E64" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>1</v>
-      </c>
-      <c r="B65" t="s">
-        <v>230</v>
-      </c>
-      <c r="C65" t="s">
-        <v>230</v>
-      </c>
-      <c r="D65" t="s">
-        <v>231</v>
-      </c>
-      <c r="G65" t="s">
-        <v>230</v>
-      </c>
-      <c r="H65" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>2</v>
-      </c>
-      <c r="B66" t="s">
-        <v>232</v>
-      </c>
-      <c r="C66" t="s">
-        <v>232</v>
-      </c>
-      <c r="D66" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C67" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D67" t="s">
-        <v>235</v>
+        <v>117</v>
       </c>
       <c r="E67" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F67" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="G67" t="s">
-        <v>237</v>
-      </c>
-      <c r="H67" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
